--- a/EKKBUDG.xlsx
+++ b/EKKBUDG.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS\GBDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D0E4A2-B445-4C27-8039-96747A0E3621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE8BCAD-EE62-4A1B-A41C-1DC4A4A205B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{542A80D8-8868-4443-9971-6FD0FB55BFFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$13:$G$22</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>EKKLESIA SA SINDANGAN</t>
   </si>
@@ -58,6 +61,9 @@
   </si>
   <si>
     <t>Nag gasto</t>
+  </si>
+  <si>
+    <t>TRAINEES(FARE)</t>
   </si>
 </sst>
 </file>
@@ -262,6 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -271,7 +278,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D630FB8C-877F-4623-B2C2-8BC3777ABB30}">
-  <dimension ref="B2:G11"/>
+  <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,14 +606,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -699,14 +705,116 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="16" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="15"/>
     </row>
+    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1800</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="12">
+        <v>200</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="12">
+        <f>1800-200</f>
+        <v>1600</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/EKKBUDG.xlsx
+++ b/EKKBUDG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS\GBDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE8BCAD-EE62-4A1B-A41C-1DC4A4A205B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0801724B-6EBE-45C3-AAF3-DFAFF11B1779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{542A80D8-8868-4443-9971-6FD0FB55BFFF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>EKKLESIA SA SINDANGAN</t>
   </si>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D630FB8C-877F-4623-B2C2-8BC3777ABB30}">
-  <dimension ref="B2:G22"/>
+  <dimension ref="B2:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,10 +811,112 @@
       <c r="F22" s="16"/>
       <c r="G22" s="15"/>
     </row>
+    <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1600</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="12">
+        <v>50</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="12">
+        <f>1600-50</f>
+        <v>1550</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/EKKBUDG.xlsx
+++ b/EKKBUDG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS\GBDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GBDS\GBDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0801724B-6EBE-45C3-AAF3-DFAFF11B1779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39BFE23-1D59-488F-B460-2FACBC32E320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{542A80D8-8868-4443-9971-6FD0FB55BFFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22104" windowHeight="11808" xr2:uid="{542A80D8-8868-4443-9971-6FD0FB55BFFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
   <si>
     <t>EKKLESIA SA SINDANGAN</t>
   </si>
@@ -64,6 +58,9 @@
   </si>
   <si>
     <t>TRAINEES(FARE)</t>
+  </si>
+  <si>
+    <t>GAS(CAB)</t>
   </si>
 </sst>
 </file>
@@ -73,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,20 +248,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -278,6 +273,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,30 +588,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D630FB8C-877F-4623-B2C2-8BC3777ABB30}">
-  <dimension ref="B2:G33"/>
+  <dimension ref="B2:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:14" ht="15.6">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="I2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="17"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.6">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -626,101 +634,136 @@
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="G4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.6">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>2000</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="6"/>
+      <c r="I5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="10">
+        <v>2000</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="18">
+        <f>200+200+50</f>
+        <v>450</v>
+      </c>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="L6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="2:14" ht="15.6">
       <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>200</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="L7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="G8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="L8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="2:14" ht="15.6">
+      <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <f>2000-200</f>
         <v>1800</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="6"/>
+      <c r="I9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10">
+        <f>2000-450</f>
+        <v>1550</v>
+      </c>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" s="5"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
+      <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="16" t="s">
+      <c r="G10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+      <c r="G11" s="13"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="13" spans="2:14" ht="15.6">
+      <c r="B13" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.6">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -732,96 +775,75 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14">
       <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.6">
+      <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <v>1800</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.6">
       <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>200</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="5"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="E19" s="9"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.6">
+      <c r="B20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="10">
         <f>1800-200</f>
         <v>1600</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="10"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="5"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.6">
+      <c r="B24" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.6">
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
@@ -833,90 +855,70 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7">
       <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.6">
+      <c r="B27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="10">
         <v>1600</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="5"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="2:7" ht="15.6">
       <c r="B29" s="5"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="12">
+      <c r="E29" s="10">
         <v>50</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30" s="5"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
+      <c r="E30" s="9"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="2:7" ht="15.6">
+      <c r="B31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="10">
         <f>1600-50</f>
         <v>1550</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="10"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32" s="5"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="15"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B24:G24"/>
+    <mergeCell ref="I2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/EKKBUDG.xlsx
+++ b/EKKBUDG.xlsx
@@ -1,34 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GBDS\GBDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS\GBDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39BFE23-1D59-488F-B460-2FACBC32E320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5095EB-3547-497B-AAB2-67C806039C9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22104" windowHeight="11808" xr2:uid="{542A80D8-8868-4443-9971-6FD0FB55BFFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{542A80D8-8868-4443-9971-6FD0FB55BFFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$13:$G$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$I$2:$N$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>EKKLESIA SA SINDANGAN</t>
   </si>
@@ -61,16 +67,23 @@
   </si>
   <si>
     <t>GAS(CAB)</t>
+  </si>
+  <si>
+    <t>TOTAL:</t>
+  </si>
+  <si>
+    <t>DECEMBER 04, 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +123,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u val="singleAccounting"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -248,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -264,6 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -273,7 +304,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,40 +624,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D630FB8C-877F-4623-B2C2-8BC3777ABB30}">
   <dimension ref="B2:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15.6">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="I2" s="15" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="I2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" spans="2:14" ht="15.6">
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -640,18 +675,18 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="3" t="s">
-        <v>4</v>
+      <c r="M3" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="G4" s="6"/>
       <c r="I4" s="5"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="2:14" ht="15.6">
+    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -668,16 +703,12 @@
       <c r="J5" s="10">
         <v>2000</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="18">
-        <f>200+200+50</f>
-        <v>450</v>
-      </c>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="E6" s="9" t="s">
         <v>6</v>
@@ -687,9 +718,12 @@
       <c r="L6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="2:14" ht="15.6">
+      <c r="M6" s="15"/>
+      <c r="N6" s="19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="E7" s="10">
         <v>200</v>
@@ -699,18 +733,22 @@
       <c r="L7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="2:14">
+      <c r="N7" s="19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="G8" s="6"/>
       <c r="I8" s="5"/>
       <c r="L8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="2:14" ht="15.6">
+      <c r="N8" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
@@ -726,18 +764,24 @@
         <f>2000-450</f>
         <v>1550</v>
       </c>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="2:14">
+      <c r="L9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="21">
+        <f>SUM(N6:N8)</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" s="5"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="2:14">
+      <c r="N10" s="19"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -753,17 +797,17 @@
       <c r="M11" s="14"/>
       <c r="N11" s="13"/>
     </row>
-    <row r="13" spans="2:14" ht="15.6">
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.6">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -775,11 +819,11 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="2:14" ht="15.6">
+    <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
@@ -791,26 +835,26 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="E17" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="2:7" ht="15.6">
+    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="E18" s="10">
         <v>200</v>
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="E19" s="9"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="2:7" ht="15.6">
+    <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>5</v>
       </c>
@@ -821,11 +865,11 @@
       <c r="E20" s="10"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -833,17 +877,17 @@
       <c r="F22" s="14"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="24" spans="2:7" ht="15.6">
-      <c r="B24" s="15" t="s">
+    <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.6">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
@@ -855,11 +899,11 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="2:7" ht="15.6">
+    <row r="27" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>2</v>
       </c>
@@ -871,26 +915,26 @@
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="E28" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="2:7" ht="15.6">
+    <row r="29" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="E29" s="10">
         <v>50</v>
       </c>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="E30" s="9"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="2:7" ht="15.6">
+    <row r="31" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>5</v>
       </c>
@@ -901,11 +945,11 @@
       <c r="E31" s="10"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>

--- a/EKKBUDG.xlsx
+++ b/EKKBUDG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS\GBDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GBDS\GBDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5095EB-3547-497B-AAB2-67C806039C9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE6A22F-F8B0-4DA3-B89A-C7D859D0B6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{542A80D8-8868-4443-9971-6FD0FB55BFFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22104" windowHeight="11808" xr2:uid="{542A80D8-8868-4443-9971-6FD0FB55BFFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
   <si>
     <t>EKKLESIA SA SINDANGAN</t>
   </si>
@@ -73,6 +67,9 @@
   </si>
   <si>
     <t>DECEMBER 04, 2024</t>
+  </si>
+  <si>
+    <t>DECEMBER 07, 2024</t>
   </si>
 </sst>
 </file>
@@ -81,7 +78,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -295,6 +292,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -304,10 +305,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,40 +622,40 @@
   <dimension ref="B2:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="I2" s="16" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="I2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="18"/>
-    </row>
-    <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -675,18 +672,18 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="19" t="s">
         <v>12</v>
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="G4" s="6"/>
       <c r="I4" s="5"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -703,12 +700,12 @@
       <c r="J5" s="10">
         <v>2000</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="17" t="s">
         <v>3</v>
       </c>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="E6" s="9" t="s">
         <v>6</v>
@@ -719,11 +716,11 @@
         <v>6</v>
       </c>
       <c r="M6" s="15"/>
-      <c r="N6" s="19">
+      <c r="N6" s="16">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="E7" s="10">
         <v>200</v>
@@ -733,22 +730,22 @@
       <c r="L7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="16">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="G8" s="6"/>
       <c r="I8" s="5"/>
       <c r="L8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="16">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" ht="17.399999999999999" x14ac:dyDescent="0.45">
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
@@ -764,24 +761,24 @@
         <f>2000-450</f>
         <v>1550</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="18">
         <f>SUM(N6:N8)</f>
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" s="5"/>
-      <c r="N10" s="19"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -797,17 +794,25 @@
       <c r="M11" s="14"/>
       <c r="N11" s="13"/>
     </row>
-    <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+    <row r="13" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="I13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="22"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -818,12 +823,24 @@
         <v>4</v>
       </c>
       <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I15" s="5"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
@@ -834,27 +851,51 @@
         <v>3</v>
       </c>
       <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1550</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="E17" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I17" s="5"/>
+      <c r="L17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="E18" s="10">
         <v>200</v>
       </c>
       <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I18" s="5"/>
+      <c r="L18" s="9"/>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="E19" s="9"/>
       <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I19" s="5"/>
+      <c r="L19" s="9"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="2:14" ht="17.399999999999999" x14ac:dyDescent="0.45">
       <c r="B20" s="7" t="s">
         <v>5</v>
       </c>
@@ -864,30 +905,52 @@
       </c>
       <c r="E20" s="10"/>
       <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="10">
+        <f>1550-50</f>
+        <v>1500</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="18">
+        <f>SUM(N17:N18)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I21" s="5"/>
+      <c r="N21" s="16"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="14"/>
       <c r="G22" s="13"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="13"/>
+    </row>
+    <row r="24" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
@@ -899,11 +962,11 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>2</v>
       </c>
@@ -915,26 +978,26 @@
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
       <c r="E28" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="E29" s="10">
         <v>50</v>
       </c>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="E30" s="9"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>5</v>
       </c>
@@ -945,11 +1008,11 @@
       <c r="E31" s="10"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -958,11 +1021,12 @@
       <c r="G33" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I13:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/EKKBUDG.xlsx
+++ b/EKKBUDG.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GBDS\GBDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS\GBDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE6A22F-F8B0-4DA3-B89A-C7D859D0B6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A7831E-88D5-4D3F-970F-156AD329B49F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22104" windowHeight="11808" xr2:uid="{542A80D8-8868-4443-9971-6FD0FB55BFFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{542A80D8-8868-4443-9971-6FD0FB55BFFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$I$2:$N$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$I$13:$N$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -622,22 +628,22 @@
   <dimension ref="B2:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="I13" sqref="I13:N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
@@ -655,7 +661,7 @@
       <c r="M2" s="21"/>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -677,13 +683,13 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="G4" s="6"/>
       <c r="I4" s="5"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -705,7 +711,7 @@
       </c>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="E6" s="9" t="s">
         <v>6</v>
@@ -720,7 +726,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="E7" s="10">
         <v>200</v>
@@ -734,7 +740,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="G8" s="6"/>
       <c r="I8" s="5"/>
@@ -745,7 +751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="17.399999999999999" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
@@ -769,7 +775,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="E10" t="s">
         <v>7</v>
@@ -778,7 +784,7 @@
       <c r="I10" s="5"/>
       <c r="N10" s="16"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -794,7 +800,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="13"/>
     </row>
-    <row r="13" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
         <v>0</v>
       </c>
@@ -812,7 +818,7 @@
       <c r="M13" s="21"/>
       <c r="N13" s="22"/>
     </row>
-    <row r="14" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -834,13 +840,13 @@
       </c>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="G15" s="6"/>
       <c r="I15" s="5"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
@@ -862,7 +868,7 @@
       </c>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="E17" s="9" t="s">
         <v>9</v>
@@ -877,7 +883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="E18" s="10">
         <v>200</v>
@@ -887,7 +893,7 @@
       <c r="L18" s="9"/>
       <c r="N18" s="16"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="E19" s="9"/>
       <c r="G19" s="6"/>
@@ -895,7 +901,7 @@
       <c r="L19" s="9"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="2:14" ht="17.399999999999999" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:14" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B20" s="7" t="s">
         <v>5</v>
       </c>
@@ -920,13 +926,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="G21" s="6"/>
       <c r="I21" s="5"/>
       <c r="N21" s="16"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -940,7 +946,7 @@
       <c r="M22" s="14"/>
       <c r="N22" s="13"/>
     </row>
-    <row r="24" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>0</v>
       </c>
@@ -950,7 +956,7 @@
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
@@ -962,11 +968,11 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>2</v>
       </c>
@@ -978,26 +984,26 @@
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="E28" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="E29" s="10">
         <v>50</v>
       </c>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="E30" s="9"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>5</v>
       </c>
@@ -1008,11 +1014,11 @@
       <c r="E31" s="10"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>

--- a/EKKBUDG.xlsx
+++ b/EKKBUDG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS\GBDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GBDS\GBDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A7831E-88D5-4D3F-970F-156AD329B49F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FCFA27-8D8F-48E7-9F27-0AD119378779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{542A80D8-8868-4443-9971-6FD0FB55BFFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22104" windowHeight="11808" xr2:uid="{542A80D8-8868-4443-9971-6FD0FB55BFFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="16">
   <si>
     <t>EKKLESIA SA SINDANGAN</t>
   </si>
@@ -76,6 +70,12 @@
   </si>
   <si>
     <t>DECEMBER 07, 2024</t>
+  </si>
+  <si>
+    <t>DECEMBER 11, 2024</t>
+  </si>
+  <si>
+    <t>GAS(M.S.)</t>
   </si>
 </sst>
 </file>
@@ -625,25 +625,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D630FB8C-877F-4623-B2C2-8BC3777ABB30}">
-  <dimension ref="B2:N33"/>
+  <dimension ref="B2:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:N22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="M2" s="21"/>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -683,13 +683,13 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="G4" s="6"/>
       <c r="I4" s="5"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -711,7 +711,7 @@
       </c>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="E6" s="9" t="s">
         <v>6</v>
@@ -726,7 +726,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="E7" s="10">
         <v>200</v>
@@ -740,7 +740,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="G8" s="6"/>
       <c r="I8" s="5"/>
@@ -751,7 +751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" ht="17.399999999999999" x14ac:dyDescent="0.45">
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
@@ -775,7 +775,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="E10" t="s">
         <v>7</v>
@@ -784,7 +784,7 @@
       <c r="I10" s="5"/>
       <c r="N10" s="16"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -800,7 +800,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="13"/>
     </row>
-    <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="20" t="s">
         <v>0</v>
       </c>
@@ -818,7 +818,7 @@
       <c r="M13" s="21"/>
       <c r="N13" s="22"/>
     </row>
-    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -840,13 +840,13 @@
       </c>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="G15" s="6"/>
       <c r="I15" s="5"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
@@ -868,7 +868,7 @@
       </c>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="E17" s="9" t="s">
         <v>9</v>
@@ -883,7 +883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="E18" s="10">
         <v>200</v>
@@ -893,7 +893,7 @@
       <c r="L18" s="9"/>
       <c r="N18" s="16"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="E19" s="9"/>
       <c r="G19" s="6"/>
@@ -901,7 +901,7 @@
       <c r="L19" s="9"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="2:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" ht="17.399999999999999" x14ac:dyDescent="0.45">
       <c r="B20" s="7" t="s">
         <v>5</v>
       </c>
@@ -926,13 +926,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="G21" s="6"/>
       <c r="I21" s="5"/>
       <c r="N21" s="16"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -946,7 +946,7 @@
       <c r="M22" s="14"/>
       <c r="N22" s="13"/>
     </row>
-    <row r="24" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="20" t="s">
         <v>0</v>
       </c>
@@ -955,8 +955,16 @@
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I24" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="22"/>
+    </row>
+    <row r="25" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
@@ -967,12 +975,24 @@
         <v>4</v>
       </c>
       <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I26" s="5"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>2</v>
       </c>
@@ -983,27 +1003,51 @@
         <v>3</v>
       </c>
       <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="10">
+        <v>1500</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
       <c r="E28" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I28" s="5"/>
+      <c r="L28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="15"/>
+      <c r="N28" s="16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="E29" s="10">
         <v>50</v>
       </c>
       <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I29" s="5"/>
+      <c r="L29" s="9"/>
+      <c r="N29" s="16"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="E30" s="9"/>
       <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I30" s="5"/>
+      <c r="L30" s="9"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="2:14" ht="17.399999999999999" x14ac:dyDescent="0.45">
       <c r="B31" s="7" t="s">
         <v>5</v>
       </c>
@@ -1013,26 +1057,144 @@
       </c>
       <c r="E31" s="10"/>
       <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="10">
+        <f>1500-198</f>
+        <v>1302</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N31" s="18">
+        <f>SUM(N28:N29)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I32" s="5"/>
+      <c r="N32" s="16"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="14"/>
       <c r="G33" s="13"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="13"/>
+    </row>
+    <row r="35" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I35" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="22"/>
+    </row>
+    <row r="36" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I37" s="5"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I38" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" s="10">
+        <v>1302</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I39" s="5"/>
+      <c r="L39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M39" s="15"/>
+      <c r="N39" s="16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I40" s="5"/>
+      <c r="L40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N40" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I41" s="5"/>
+      <c r="L41" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N41" s="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="I42" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="10">
+        <f>1302-350</f>
+        <v>952</v>
+      </c>
+      <c r="L42" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N42" s="18">
+        <f>SUM(N39:N41)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I43" s="5"/>
+      <c r="N43" s="16"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I44" s="11"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="I35:N35"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="I13:N13"/>
+    <mergeCell ref="I24:N24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
